--- a/Pressure_profile_summary.xlsx
+++ b/Pressure_profile_summary.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1268</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1292</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1312</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1327</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1340</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1360</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1369</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1377</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1383</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1390</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1396</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1399</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2611</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2674</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2723</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2760</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2793</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2819</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2842</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2863</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2881</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2898</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2913</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2927</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2933</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2747</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2815</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2866</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2907</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2941</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2970</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2994</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3016</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3036</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3053</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3069</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3084</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3091</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2648</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="50">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2864</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2936</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="53">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2991</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="54">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3034</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="55">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3070</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="56">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3099</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="57">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3127</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="58">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3149</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="59">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3170</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="60">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3189</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="61">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2603</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="62">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3205</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="63">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3220</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="64">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3229</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="65">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2759</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="66">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="67">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2973</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="68">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3050</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="69">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3107</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="70">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3152</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="71">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3190</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="72">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3222</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="73">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3250</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="74">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3273</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="75">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3295</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="76">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3315</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="77">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="78">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3333</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="79">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3349</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="80">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3356</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="81">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2863</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="82">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3072</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="84">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3151</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="85">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3211</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="86">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3259</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="87">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3298</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="88">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3332</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="89">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3361</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="90">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3386</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="91">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3408</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="92">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3428</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="93">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="94">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3447</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="95">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3464</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="96">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3472</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="97">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2958</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="98">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3165</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="100">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3249</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="101">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3311</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="102">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3361</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="103">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3402</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="104">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3437</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="105">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3467</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="106">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3494</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="107">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3517</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="108">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3538</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="109">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="110">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3557</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="111">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3575</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="112">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3583</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="113">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3047</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="114">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3191</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="115">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3252</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="116">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3339</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="117">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3405</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="118">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3455</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="119">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3498</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="120">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3534</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="121">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3566</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="122">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3593</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="123">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3617</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="124">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3639</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="125">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2967</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="126">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3660</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="127">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3678</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="128">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3686</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="129">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3130</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="130">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3333</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="132">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3422</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="133">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="134">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3542</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="135">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3586</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="136">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3624</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="137">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3656</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="138">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3684</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="139">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3709</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="140">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3731</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="141">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="142">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3752</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="143">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3771</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="144">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3780</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="145">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3206</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="146">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3371</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="147">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3408</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="148">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3501</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="149">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3569</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="150">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3625</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="151">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3670</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="152">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3708</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="153">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3741</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="154">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3771</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="155">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3797</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="156">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3820</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="157">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3116</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="158">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3841</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="159">
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3861</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="160">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3870</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="161">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3279</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="162">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3480</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="164">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3575</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="165">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3646</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="166">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3703</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="167">
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3750</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="168">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3789</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="169">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3823</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="170">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3854</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="171">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3880</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="172">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3904</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="173">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3186</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="174">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3925</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="175">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3945</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="176">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3955</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="177">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3348</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="178">
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="180">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="181">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1830</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="182">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1853</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="183">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1871</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="184">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1887</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="185">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1900</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="186">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1913</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="187">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1923</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="188">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1939</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="189">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="190">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1948</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="191">
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1957</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="192">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1961</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="193">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="194">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3553</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="196">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3650</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="197">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3724</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="198">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3782</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="199">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3830</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="200">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3871</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="201">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3905</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="202">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3936</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="203">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3963</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="204">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3988</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="205">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>4010</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="207">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>4031</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="208">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4041</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="209">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3416</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="210">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3618</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="211">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3618</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="212">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3717</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="213">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3792</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="214">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>3852</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="215">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3902</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="216">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3944</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="217">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3979</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="218">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>4010</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="219">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>4039</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="220">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4064</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="221">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3321</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="222">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>4086</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="223">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>4108</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="224">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>4118</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="225">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3478</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="226">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3682</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="228">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3785</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="229">
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3863</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="230">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3923</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="231">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3974</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="232">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>4016</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="233">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>4053</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="234">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>4085</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="235">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>4114</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="236">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4140</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="237">
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="238">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>4163</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="239">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>4185</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="240">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>4195</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="241">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3540</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="242">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>3744</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="244">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3847</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="245">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3927</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="246">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3990</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="247">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>4041</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="248">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>4085</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="249">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4122</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="250">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>4155</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="251">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4185</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="252">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>4212</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="253">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3447</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="254">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>4235</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="255">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>4258</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="256">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4268</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="257">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3600</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="258">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>3801</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="260">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3907</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="261">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3988</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="262">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>4052</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="263">
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>4106</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="264">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>4150</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="265">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4188</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="266">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4222</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="267">
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>4252</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="268">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>4279</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="269">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3505</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="270">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>4304</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="271">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>4326</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="272">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>4337</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="273">
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3655</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="274">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3858</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="276">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>3967</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="277">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>4050</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="278">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>4116</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="279">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>4170</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="280">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>4214</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="281">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>4254</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="282">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>4288</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="283">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>4319</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="284">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>4347</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="285">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4371</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="287">
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>4394</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="288">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>4405</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="289">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>3710</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="290">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="292">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>4023</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="293">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>4107</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="294">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>4174</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="295">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>4229</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="296">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>4276</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="297">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4315</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="298">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>4351</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="299">
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>4382</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="300">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>4410</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="301">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>3619</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="302">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>4435</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="303">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>4458</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="304">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>4469</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="305">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3763</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="306">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3966</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="308">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>4079</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="309">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>4165</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="310">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>4234</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="311">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>4289</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="312">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>4337</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="313">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>4377</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="314">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>4413</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="315">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>4445</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="316">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>4473</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="317">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>4499</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="319">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>4522</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="320">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>4534</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="321">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3814</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="322">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>4016</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="324">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>4131</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="325">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4219</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="326">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>4288</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="327">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>4345</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="328">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>4393</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="329">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>4435</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="330">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>4471</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="331">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>4504</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="332">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>4532</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="333">
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3727</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="334">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>4559</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="335">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4583</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="336">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>4594</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="337">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3863</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="338">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>4153</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="339">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>4067</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="340">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>4183</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="341">
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>4273</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="342">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>4343</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="343">
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>4401</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="344">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>4450</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="345">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>4492</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="346">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>4528</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="347">
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>4561</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="348">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>4592</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="349">
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>3779</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="350">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>4619</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="351">
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>4643</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="352">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>4654</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="353">
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>3911</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="354">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2057</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="356">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2103</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="357">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2138</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="358">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2165</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="359">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2188</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="360">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2207</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="361">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2225</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="362">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2239</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="363">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2252</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="364">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2269</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="365">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="366">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2280</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="367">
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2291</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="368">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2296</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="369">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="370">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>4113</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="372">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4232</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="373">
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>4322</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="374">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4394</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="375">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>4453</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="376">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>4503</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="377">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>4546</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="378">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>4584</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="379">
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>4617</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="380">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>4647</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="381">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>3829</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="382">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4674</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="383">
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4699</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="384">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>4710</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="385">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>3958</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="386">
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>4160</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="388">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>4280</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="389">
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4372</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="390">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>4445</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="391">
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>4505</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="392">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>4556</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="393">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>4599</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="394">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>4638</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="395">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4671</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="396">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>4701</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="397">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4729</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="399">
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4754</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="400">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>4766</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="401">
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4003</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="402">
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>4207</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="404">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>4328</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="405">
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4422</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="406">
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>4496</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="407">
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>4557</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="408">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>4608</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="409">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>4652</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="410">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>4691</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="411">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4725</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="412">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4756</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="413">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>4784</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="415">
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>4810</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="416">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>4823</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="417">
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>4049</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="418">
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>4250</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="420">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>4373</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="421">
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>4468</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="422">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>4544</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="423">
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4606</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="424">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>4657</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="425">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>4703</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="426">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>4742</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="427">
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>4777</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="428">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>4808</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="429">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3975</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="430">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4837</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="431">
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>4863</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="432">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>4874</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="433">
@@ -6927,7 +6927,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>4090</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="434">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>4294</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="436">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>4418</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="437">
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>4515</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="438">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>4591</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="439">
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>4654</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="440">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>4706</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="441">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>4751</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="442">
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>4791</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="443">
@@ -7077,7 +7077,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>4826</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="444">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>4858</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="445">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>4888</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="447">
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>4914</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="448">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>4926</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="449">
@@ -7167,7 +7167,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>4133</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="450">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>4336</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="452">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>4463</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="453">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>4560</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="454">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>4638</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="455">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>4702</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="456">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>4755</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="457">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4801</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="458">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>4842</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="459">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>4877</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="460">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>4910</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="461">
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>4067</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="462">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>4939</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="463">
@@ -7377,7 +7377,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>4965</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="464">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>4978</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="465">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>4175</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="466">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4523</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="467">
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>4376</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="468">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>4503</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="469">
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>4602</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="470">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>4681</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="471">
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>4745</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="472">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>4800</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="473">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>4846</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="474">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>4887</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="475">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>4924</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="476">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>4956</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="477">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>4986</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="479">
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>5013</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="480">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>5025</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="481">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>4214</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="482">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="484">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>4545</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="485">
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>4645</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="486">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>4724</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="487">
@@ -7737,7 +7737,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>4789</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="488">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>4844</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="489">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>4892</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="490">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>4934</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="491">
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>4970</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="492">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>5003</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="493">
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>4152</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="494">
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>5033</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="495">
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>5060</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="496">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>5073</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="497">
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>4253</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="498">
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>4455</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="500">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>4586</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="501">
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>4687</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="502">
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>4768</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="503">
@@ -7977,7 +7977,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>4834</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="504">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>4889</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="505">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>4938</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="506">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>4980</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="507">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>5017</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="508">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>5050</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="509">
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4195</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="510">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>5081</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="511">
@@ -8097,7 +8097,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>5108</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="512">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>5121</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="513">
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>4292</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="514">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>4496</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="516">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>4627</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="517">
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>4729</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="518">
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>4811</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="519">
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>4878</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="520">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>4935</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="521">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>4982</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="522">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>5026</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="523">
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>5063</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="524">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>5097</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="525">
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>5127</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="527">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>5156</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="528">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>5168</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="529">
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>4332</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="530">
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>2279</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="532">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>2332</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="533">
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>2371</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="534">
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>2402</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="535">
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>2429</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="536">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>2451</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="537">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>2470</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="538">
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>2487</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="539">
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>2503</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="540">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>2521</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="541">
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="542">
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>2533</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="543">
@@ -8577,7 +8577,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>2545</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="544">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>2550</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="545">
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="546">
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>4515</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="548">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>4647</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="549">
@@ -8667,7 +8667,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>4750</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="550">
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>4832</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="551">
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>4900</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="552">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>4956</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="553">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>5005</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="554">
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>5048</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="555">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>5086</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="556">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>5121</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="557">
@@ -8787,7 +8787,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>4260</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="558">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>5151</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="559">
@@ -8817,7 +8817,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>5179</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="560">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>5193</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="561">
@@ -8847,7 +8847,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>4352</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="562">
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="563">
@@ -8877,7 +8877,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="564">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>2516</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="565">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>2559</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="566">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2595</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="567">
@@ -8937,7 +8937,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>2624</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="568">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>2648</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="569">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>2669</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="570">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>2688</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="571">
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>2705</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="572">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>2724</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="573">
@@ -9027,7 +9027,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="574">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>2739</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="575">
@@ -9057,7 +9057,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>2751</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="576">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>2757</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="577">
@@ -9087,7 +9087,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
   </sheetData>
